--- a/PA/PA1/doc/b11901164.xlsx
+++ b/PA/PA1/doc/b11901164.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Input size</t>
   </si>
@@ -71,6 +71,15 @@
   <si>
     <t>1000000.case1</t>
   </si>
+  <si>
+    <t>case1</t>
+  </si>
+  <si>
+    <t>case2</t>
+  </si>
+  <si>
+    <t>case3</t>
+  </si>
 </sst>
 </file>
 
@@ -122,6 +131,1237 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Case 1</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149.878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.733</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2140842097"/>
+        <c:axId val="2140842098"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140842097"/>
+        <c:scaling>
+          <c:logBase val="10.000000"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000.000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140842098"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140842098"/>
+        <c:scaling>
+          <c:logBase val="10.000000"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140842097"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="5046131" y="3313639"/>
+      <a:ext cx="5346698" cy="3079748"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>651931</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>194730</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>170388</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5046131" y="3313639"/>
+        <a:ext cx="5346698" cy="3079748"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,7 +1857,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -682,28 +1922,28 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C3">
-        <v>6068</v>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5904</v>
       </c>
       <c r="D3">
-        <v>1.109</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="E3">
-        <v>6068</v>
+        <v>5904</v>
       </c>
       <c r="F3">
-        <v>6.4260000000000002</v>
+        <v>16.501000000000001</v>
       </c>
       <c r="G3">
-        <v>6200</v>
+        <v>6032</v>
       </c>
       <c r="H3">
-        <v>0.66100000000000003</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="I3">
-        <v>6068</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -711,28 +1951,28 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5.4199999999999999</v>
-      </c>
-      <c r="C4">
-        <v>6068</v>
+        <v>9.6400000000000006</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5904</v>
       </c>
       <c r="D4">
-        <v>0.35299999999999998</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="E4" s="2">
-        <v>6068</v>
+        <v>5904</v>
       </c>
       <c r="F4">
-        <v>4.0650000000000004</v>
+        <v>9.9640000000000004</v>
       </c>
       <c r="G4" s="2">
-        <v>6072</v>
+        <v>5908</v>
       </c>
       <c r="H4">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="I4">
-        <v>6068</v>
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5904</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -740,28 +1980,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.375</v>
-      </c>
-      <c r="C5">
-        <v>6068</v>
+        <v>3.9279999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5904</v>
       </c>
       <c r="D5">
-        <v>0.36199999999999999</v>
+        <v>1.2370000000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>6068</v>
+        <v>5904</v>
       </c>
       <c r="F5">
-        <v>0.313</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="G5" s="2">
-        <v>6068</v>
+        <v>5904</v>
       </c>
       <c r="H5">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="I5">
-        <v>6068</v>
+        <v>0.311</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5904</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -769,28 +2009,28 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="C6">
-        <v>6220</v>
+        <v>0.076999999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6056</v>
       </c>
       <c r="D6">
-        <v>0.91300000000000003</v>
+        <v>2.9940000000000002</v>
       </c>
       <c r="E6" s="2">
-        <v>6220</v>
+        <v>6056</v>
       </c>
       <c r="F6">
-        <v>63.896999999999998</v>
+        <v>158.84399999999999</v>
       </c>
       <c r="G6" s="2">
-        <v>7100</v>
+        <v>6932</v>
       </c>
       <c r="H6">
-        <v>1.518</v>
+        <v>1.306</v>
       </c>
       <c r="I6">
-        <v>6220</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -798,28 +2038,28 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>36.170999999999999</v>
-      </c>
-      <c r="C7">
-        <v>6220</v>
+        <v>79.311000000000007</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6056</v>
       </c>
       <c r="D7">
-        <v>0.94599999999999995</v>
+        <v>1.764</v>
       </c>
       <c r="E7" s="2">
-        <v>6220</v>
+        <v>6056</v>
       </c>
       <c r="F7">
-        <v>51.399000000000001</v>
+        <v>125.00700000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>6596</v>
+        <v>6432</v>
       </c>
       <c r="H7">
-        <v>1.661</v>
-      </c>
-      <c r="I7">
-        <v>6220</v>
+        <v>1.345</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6056</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -827,28 +2067,28 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>19.428000000000001</v>
-      </c>
-      <c r="C8">
-        <v>6220</v>
+        <v>39.119999999999997</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6056</v>
       </c>
       <c r="D8">
-        <v>1.3180000000000001</v>
+        <v>2.681</v>
       </c>
       <c r="E8" s="2">
-        <v>6220</v>
+        <v>6056</v>
       </c>
       <c r="F8">
-        <v>0.76900000000000002</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>6200</v>
+        <v>6056</v>
       </c>
       <c r="H8">
-        <v>1.931</v>
-      </c>
-      <c r="I8">
-        <v>6220</v>
+        <v>1.367</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6056</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -856,28 +2096,28 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.104</v>
-      </c>
-      <c r="C9">
-        <v>6352</v>
+        <v>0.123</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6188</v>
       </c>
       <c r="D9">
-        <v>1.1200000000000001</v>
+        <v>2.8399999999999999</v>
       </c>
       <c r="E9" s="2">
-        <v>6352</v>
+        <v>6188</v>
       </c>
       <c r="F9">
-        <v>239.52500000000001</v>
+        <v>608.846</v>
       </c>
       <c r="G9" s="2">
-        <v>8168</v>
+        <v>7996</v>
       </c>
       <c r="H9">
-        <v>1.1100000000000001</v>
+        <v>2.7610000000000001</v>
       </c>
       <c r="I9">
-        <v>6352</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="10" ht="14.25">
@@ -885,28 +2125,28 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>127.43600000000001</v>
-      </c>
-      <c r="C10">
-        <v>6352</v>
+        <v>283.68099999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6188</v>
       </c>
       <c r="D10">
-        <v>1.363</v>
+        <v>3.3079999999999998</v>
       </c>
       <c r="E10" s="2">
-        <v>6352</v>
+        <v>6188</v>
       </c>
       <c r="F10">
-        <v>176.952</v>
+        <v>466.60399999999998</v>
       </c>
       <c r="G10" s="2">
-        <v>7148</v>
+        <v>6984</v>
       </c>
       <c r="H10">
-        <v>2.5880000000000001</v>
-      </c>
-      <c r="I10">
-        <v>6352</v>
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6188</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -914,28 +2154,28 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>63.289000000000001</v>
-      </c>
-      <c r="C11">
-        <v>6352</v>
+        <v>134.73699999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6188</v>
       </c>
       <c r="D11">
-        <v>3.7679999999999998</v>
+        <v>4.2539999999999996</v>
       </c>
       <c r="E11" s="2">
-        <v>6352</v>
+        <v>6188</v>
       </c>
       <c r="F11">
-        <v>1.454</v>
+        <v>2.4649999999999999</v>
       </c>
       <c r="G11" s="2">
-        <v>6352</v>
+        <v>6118</v>
       </c>
       <c r="H11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="I11">
-        <v>6352</v>
+        <v>2.7330000000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6188</v>
       </c>
     </row>
     <row r="12" ht="14.25">
@@ -943,44 +2183,57 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0.65800000000000003</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="C12" s="2">
-        <v>12308</v>
+        <v>12144</v>
       </c>
       <c r="D12">
-        <v>45.182000000000002</v>
+        <v>72.058999999999997</v>
       </c>
       <c r="E12" s="2">
-        <v>14168</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>14004</v>
+      </c>
+      <c r="F12">
+        <v>616991</v>
+      </c>
+      <c r="G12" s="2">
+        <v>72468</v>
+      </c>
       <c r="H12">
-        <v>57.106999999999999</v>
-      </c>
-      <c r="I12">
-        <v>12308</v>
+        <v>95.781000000000006</v>
+      </c>
+      <c r="I12" s="2">
+        <v>12144</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
+      <c r="B13">
+        <v>273509</v>
+      </c>
       <c r="C13" s="2">
-        <v>12308</v>
+        <v>12144</v>
       </c>
       <c r="D13">
-        <v>49.061</v>
+        <v>78.492000000000004</v>
       </c>
       <c r="E13" s="2">
-        <v>12308</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>14004</v>
+      </c>
+      <c r="F13">
+        <v>330059</v>
+      </c>
+      <c r="G13" s="2">
+        <v>33012</v>
+      </c>
       <c r="H13">
-        <v>53.560000000000002</v>
-      </c>
-      <c r="I13">
-        <v>12308</v>
+        <v>74.055999999999997</v>
+      </c>
+      <c r="I13" s="2">
+        <v>12144</v>
       </c>
     </row>
     <row r="14" ht="14.25">
@@ -988,40 +2241,318 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>127173</v>
+        <v>138976</v>
       </c>
       <c r="C14" s="2">
         <v>12144</v>
       </c>
       <c r="D14">
-        <v>105.666</v>
+        <v>149.87799999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>12308</v>
+        <v>14004</v>
       </c>
       <c r="F14">
-        <v>67.492999999999995</v>
+        <v>82.609999999999999</v>
       </c>
       <c r="G14" s="2">
-        <v>12308</v>
+        <v>12144</v>
       </c>
       <c r="H14">
-        <v>92.471000000000004</v>
-      </c>
-      <c r="I14">
-        <v>12308</v>
+        <v>139.505</v>
+      </c>
+      <c r="I14" s="2">
+        <v>12144</v>
       </c>
     </row>
     <row r="15" ht="14.25"/>
     <row r="16" ht="14.25"/>
     <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
-    <row r="19" ht="14.25"/>
-    <row r="20" ht="14.25"/>
+    <row r="18" ht="14.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="L18">
+        <v>273509</v>
+      </c>
+      <c r="M18">
+        <v>12144</v>
+      </c>
+      <c r="N18">
+        <v>78.492000000000004</v>
+      </c>
+      <c r="O18">
+        <v>14004</v>
+      </c>
+      <c r="P18">
+        <v>330059</v>
+      </c>
+      <c r="Q18">
+        <v>33012</v>
+      </c>
+      <c r="R18">
+        <v>74.055999999999997</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.9279999999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.311</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="2">
+        <v>16000</v>
+      </c>
+      <c r="B21" s="2">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.681</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.367</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="2">
+        <v>32000</v>
+      </c>
+      <c r="B22" s="2">
+        <v>134.73699999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4.2539999999999996</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.7330000000000001</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B23" s="2">
+        <v>138976</v>
+      </c>
+      <c r="C23" s="2">
+        <v>149.87799999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>82.609999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>139.505</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D26" s="2">
+        <v>16.501000000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="2">
+        <v>16000</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.076999999999999999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="D27" s="2">
+        <v>158.84399999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.306</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="2">
+        <v>32000</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.123</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.8399999999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>608.846</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.7610000000000001</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="C29" s="2">
+        <v>72.058999999999997</v>
+      </c>
+      <c r="D29" s="2">
+        <v>616991</v>
+      </c>
+      <c r="E29" s="2">
+        <v>95.781000000000006</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9.6400000000000006</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D32" s="2">
+        <v>9.9640000000000004</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="2">
+        <v>16000</v>
+      </c>
+      <c r="B33" s="2">
+        <v>79.311000000000007</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.764</v>
+      </c>
+      <c r="D33" s="2">
+        <v>125.00700000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.345</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="2">
+        <v>32000</v>
+      </c>
+      <c r="B34" s="2">
+        <v>283.68099999999998</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="D34" s="2">
+        <v>466.60399999999998</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B35" s="2">
+        <v>273509</v>
+      </c>
+      <c r="C35" s="2">
+        <v>78.492000000000004</v>
+      </c>
+      <c r="D35" s="2">
+        <v>330059</v>
+      </c>
+      <c r="E35" s="2">
+        <v>74.055999999999997</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>